--- a/Sirison_Wu_3.xlsx
+++ b/Sirison_Wu_3.xlsx
@@ -89,7 +89,7 @@
     <t xml:space="preserve">4786.6048875383</t>
   </si>
   <si>
-    <t xml:space="preserve">4770.9443070463</t>
+    <t xml:space="preserve">4770.94430704629</t>
   </si>
   <si>
     <t xml:space="preserve">4815.89711828785</t>

--- a/Sirison_Wu_3.xlsx
+++ b/Sirison_Wu_3.xlsx
@@ -89,7 +89,7 @@
     <t xml:space="preserve">4786.6048875383</t>
   </si>
   <si>
-    <t xml:space="preserve">4770.94430704629</t>
+    <t xml:space="preserve">4770.9443070463</t>
   </si>
   <si>
     <t xml:space="preserve">4815.89711828785</t>
